--- a/data/trans_camb/IP2005-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 12,99</t>
+          <t>-7,98; 12,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 12,49</t>
+          <t>-10,29; 11,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 9,44</t>
+          <t>-13,71; 9,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 12,38</t>
+          <t>-5,46; 11,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 17,02</t>
+          <t>0,54; 16,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 14,41</t>
+          <t>-5,52; 14,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 9,51</t>
+          <t>-3,81; 9,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 11,63</t>
+          <t>-1,51; 11,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 8,91</t>
+          <t>-6,04; 9,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 16,82</t>
+          <t>-8,95; 15,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 16,4</t>
+          <t>-11,57; 15,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 12,53</t>
+          <t>-16,89; 12,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 16,06</t>
+          <t>-6,13; 15,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 22,07</t>
+          <t>0,82; 21,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 18,21</t>
+          <t>-6,25; 17,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 12,05</t>
+          <t>-4,44; 11,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 14,7</t>
+          <t>-1,73; 14,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 11,07</t>
+          <t>-7,1; 11,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,08</t>
+          <t>-2,82; 3,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,08</t>
+          <t>-1,47; 5,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,51</t>
+          <t>-3,81; 3,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 5,64</t>
+          <t>-1,64; 5,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 8,23</t>
+          <t>1,58; 8,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,99</t>
+          <t>-2,57; 4,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,99</t>
+          <t>-1,19; 3,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,73</t>
+          <t>1,01; 5,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,83</t>
+          <t>-2,25; 2,82</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,66</t>
+          <t>-3,07; 4,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,85</t>
+          <t>-1,6; 5,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 3,99</t>
+          <t>-4,16; 4,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,58</t>
+          <t>-1,84; 6,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,78; 9,68</t>
+          <t>1,76; 9,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 5,9</t>
+          <t>-2,84; 5,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,58</t>
+          <t>-1,32; 4,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,55</t>
+          <t>1,12; 6,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,23</t>
+          <t>-2,5; 3,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,94</t>
+          <t>0,93; 9,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,61</t>
+          <t>-2,12; 7,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 2,07</t>
+          <t>-9,83; 1,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,71</t>
+          <t>-4,89; 3,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,88</t>
+          <t>-3,17; 4,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,83; -6,29</t>
+          <t>-17,83; -5,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,52</t>
+          <t>-0,54; 5,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,81</t>
+          <t>-1,37; 4,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -3,98</t>
+          <t>-11,88; -3,72</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 11,36</t>
+          <t>0,89; 10,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 8,65</t>
+          <t>-2,23; 8,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 2,34</t>
+          <t>-10,6; 1,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 4,03</t>
+          <t>-5,04; 4,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,35</t>
+          <t>-3,29; 5,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -6,78</t>
+          <t>-18,48; -6,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,06</t>
+          <t>-0,63; 6,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,29</t>
+          <t>-1,46; 5,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -4,35</t>
+          <t>-12,64; -4,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,92</t>
+          <t>-0,94; 4,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,91</t>
+          <t>-0,37; 4,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,33</t>
+          <t>-3,97; 1,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,5</t>
+          <t>-1,19; 4,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,87</t>
+          <t>1,78; 6,91</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,32</t>
+          <t>-4,17; 1,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,81</t>
+          <t>-0,13; 3,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,14</t>
+          <t>1,32; 5,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,29</t>
+          <t>-3,25; 0,97</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,61</t>
+          <t>-1,04; 5,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,59</t>
+          <t>-0,38; 5,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,67</t>
+          <t>-4,42; 2,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,18</t>
+          <t>-1,31; 4,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,89</t>
+          <t>1,98; 7,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,52</t>
+          <t>-4,57; 1,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,36</t>
+          <t>-0,14; 4,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,88</t>
+          <t>1,47; 5,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,46</t>
+          <t>-3,62; 1,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2005-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>2,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 12,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 16,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 15,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,81; 11,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 11,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,72; 10,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 9,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 11,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 9,92</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 15,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 20,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 19,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,01; 14,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,88; 15,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,15; 13,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 12,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 14,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 12,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 12,03</t>
+          <t>-1,84; 5,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 11,81</t>
+          <t>1,76; 8,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 9,57</t>
+          <t>-2,1; 5,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 11,73</t>
+          <t>-2,45; 3,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 16,85</t>
+          <t>-1,43; 5,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 14,15</t>
+          <t>-3,61; 3,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 9,25</t>
+          <t>-1,25; 3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 11,45</t>
+          <t>1,05; 5,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 9,36</t>
+          <t>-1,78; 3,39</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 15,85</t>
+          <t>-2,05; 6,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 15,53</t>
+          <t>2,0; 10,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 12,21</t>
+          <t>-2,33; 6,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 15,19</t>
+          <t>-2,72; 4,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 21,91</t>
+          <t>-1,57; 5,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 17,64</t>
+          <t>-3,96; 3,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 11,55</t>
+          <t>-1,38; 4,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 14,33</t>
+          <t>1,18; 6,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 11,83</t>
+          <t>-2,01; 3,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-11,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-7,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 3,89</t>
+          <t>-4,55; 3,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 5,01</t>
+          <t>-2,8; 5,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 3,57</t>
+          <t>-17,64; -6,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,61</t>
+          <t>0,63; 10,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 8,19</t>
+          <t>-2,16; 8,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,95</t>
+          <t>-10,17; 2,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,57</t>
+          <t>-0,59; 5,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,68</t>
+          <t>-1,39; 4,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,82</t>
+          <t>-12,33; -3,98</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>-12,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>-4,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>-8,39%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 4,41</t>
+          <t>-4,74; 4,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,7</t>
+          <t>-2,9; 5,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,02</t>
+          <t>-18,37; -6,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,59</t>
+          <t>0,71; 11,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,68</t>
+          <t>-2,31; 9,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 5,76</t>
+          <t>-10,79; 2,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,09</t>
+          <t>-0,6; 5,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,54</t>
+          <t>-1,46; 5,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,24</t>
+          <t>-13,08; -4,38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,86</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,86</t>
+          <t>-0,98</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,48</t>
+          <t>-1,26; 4,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 7,57</t>
+          <t>1,69; 6,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 1,67</t>
+          <t>-4,39; 1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 3,82</t>
+          <t>-0,56; 4,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 4,92</t>
+          <t>-0,41; 4,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,83; -5,55</t>
+          <t>-4,01; 2,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,63</t>
+          <t>-0,17; 3,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,76</t>
+          <t>1,44; 5,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -3,72</t>
+          <t>-3,07; 1,2</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>-1,1%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 10,8</t>
+          <t>-1,4; 4,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 8,55</t>
+          <t>1,88; 7,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 1,84</t>
+          <t>-4,86; 2,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,11</t>
+          <t>-0,62; 5,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,33</t>
+          <t>-0,46; 5,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,48; -6,04</t>
+          <t>-4,42; 2,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 6,16</t>
+          <t>-0,19; 4,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,26</t>
+          <t>1,6; 5,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -4,08</t>
+          <t>-3,39; 1,36</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 4,42</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 4,82</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 1,88</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 4,19</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>1,78; 6,91</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 1,62</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 3,75</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 5,16</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 0,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,81%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-1,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 5,08</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 5,49</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 2,14</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 4,84</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 7,94</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 1,88</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 4,27</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 5,83</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 1,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
